--- a/data/groentValg2.xlsx
+++ b/data/groentValg2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\Documents\GitKraken\dvf_viz_ft22\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7078AC-B007-41C7-834E-CE6F78B5B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207DF892-05F5-45BB-8AC3-4350D4C977F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,9 +902,6 @@
     <t>Simon Dahl Verner</t>
   </si>
   <si>
-    <t>Folketinget skal vedtage, at det altid skal være muligt, som en valgmulighed, at få et plantebaseret måltid i de offentlige køkkener -  daginstitutioner</t>
-  </si>
-  <si>
     <t>Veggiescore</t>
   </si>
   <si>
@@ -1083,6 +1080,9 @@
   </si>
   <si>
     <t>Jan Bigum Warming</t>
+  </si>
+  <si>
+    <t>Folketinget skal vedtage, at det altid skal være muligt, som en valgmulighed, at få et plantebaseret måltid i de offentlige køkkener -  Daginstitutioner</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1522,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="G1" s="7" t="str">
         <f>"- Uddannelsesinstitutioner (skoler, universiteter, o.l.)"</f>
@@ -1625,7 +1625,7 @@
         <v>21</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1820,7 +1820,7 @@
         <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>40</v>
@@ -1998,7 +1998,7 @@
         <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
@@ -2087,7 +2087,7 @@
         <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -2938,7 +2938,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -3872,7 +3872,7 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s">
         <v>26</v>
@@ -4133,7 +4133,7 @@
         <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F31" t="s">
         <v>26</v>
@@ -4222,7 +4222,7 @@
         <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
@@ -4266,7 +4266,7 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
@@ -4355,7 +4355,7 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
@@ -5653,7 +5653,7 @@
         <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F50" t="s">
         <v>25</v>
@@ -5831,7 +5831,7 @@
         <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F52" t="s">
         <v>25</v>
@@ -5920,7 +5920,7 @@
         <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F53" t="s">
         <v>25</v>
@@ -6009,7 +6009,7 @@
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F54" t="s">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F66" t="s">
         <v>25</v>
@@ -7224,7 +7224,7 @@
         <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F69" t="s">
         <v>25</v>
@@ -7873,7 +7873,7 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F77" t="s">
         <v>31</v>
@@ -8051,7 +8051,7 @@
         <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F79" t="s">
         <v>26</v>
@@ -8629,7 +8629,7 @@
         <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F86" t="s">
         <v>25</v>
@@ -9207,7 +9207,7 @@
         <v>34</v>
       </c>
       <c r="E93" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F93" t="s">
         <v>25</v>
@@ -9652,7 +9652,7 @@
         <v>128</v>
       </c>
       <c r="E98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F98" t="s">
         <v>26</v>
@@ -10755,7 +10755,7 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K111" t="s">
         <v>25</v>
@@ -10829,7 +10829,7 @@
         <v>78</v>
       </c>
       <c r="E112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F112" t="s">
         <v>40</v>
@@ -10918,7 +10918,7 @@
         <v>78</v>
       </c>
       <c r="E113" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F113" t="s">
         <v>26</v>
@@ -10962,7 +10962,7 @@
         <v>42</v>
       </c>
       <c r="E114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F114" t="s">
         <v>26</v>
@@ -11439,7 +11439,7 @@
         <v>42</v>
       </c>
       <c r="E120" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F120" t="s">
         <v>25</v>
@@ -11528,7 +11528,7 @@
         <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F121" t="s">
         <v>25</v>
@@ -11747,7 +11747,7 @@
         <v>34</v>
       </c>
       <c r="E124" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F124" t="s">
         <v>26</v>
@@ -12939,7 +12939,7 @@
         <v>78</v>
       </c>
       <c r="E138" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F138" t="s">
         <v>26</v>
@@ -12983,7 +12983,7 @@
         <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F139" t="s">
         <v>25</v>
@@ -13161,7 +13161,7 @@
         <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F141" t="s">
         <v>25</v>
@@ -13250,7 +13250,7 @@
         <v>59</v>
       </c>
       <c r="E142" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F142" t="s">
         <v>26</v>
@@ -13540,7 +13540,7 @@
         <v>59</v>
       </c>
       <c r="E146" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F146" t="s">
         <v>26</v>
@@ -13985,7 +13985,7 @@
         <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F151" t="s">
         <v>26</v>
@@ -14314,7 +14314,7 @@
         <v>99</v>
       </c>
       <c r="E155" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F155" t="s">
         <v>26</v>
@@ -14403,7 +14403,7 @@
         <v>34</v>
       </c>
       <c r="E156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F156" t="s">
         <v>26</v>
@@ -15022,7 +15022,7 @@
         <v>23</v>
       </c>
       <c r="E164" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
         <v>25</v>
@@ -15244,7 +15244,7 @@
         <v>34</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
         <v>40</v>
@@ -15994,7 +15994,7 @@
         <v>59</v>
       </c>
       <c r="E176" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F176" t="s">
         <v>25</v>
@@ -16261,7 +16261,7 @@
         <v>128</v>
       </c>
       <c r="E179" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F179" t="s">
         <v>40</v>
@@ -16925,7 +16925,7 @@
         <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F187" t="s">
         <v>26</v>
@@ -17103,7 +17103,7 @@
         <v>23</v>
       </c>
       <c r="E189" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F189" t="s">
         <v>25</v>
@@ -17726,7 +17726,7 @@
         <v>23</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>25</v>
@@ -17815,7 +17815,7 @@
         <v>61</v>
       </c>
       <c r="E197" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F197" t="s">
         <v>26</v>
@@ -17901,7 +17901,7 @@
         <v>23</v>
       </c>
       <c r="E198" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F198" t="s">
         <v>25</v>
@@ -18079,7 +18079,7 @@
         <v>23</v>
       </c>
       <c r="E200" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F200" t="s">
         <v>25</v>
@@ -18168,7 +18168,7 @@
         <v>131</v>
       </c>
       <c r="E201" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F201" t="s">
         <v>40</v>
@@ -20012,7 +20012,7 @@
         <v>59</v>
       </c>
       <c r="E223" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K223" t="s">
         <v>26</v>
@@ -20086,7 +20086,7 @@
         <v>23</v>
       </c>
       <c r="E224" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F224" t="s">
         <v>26</v>
@@ -21287,7 +21287,7 @@
         <v>78</v>
       </c>
       <c r="E238" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F238" t="s">
         <v>26</v>
@@ -21465,7 +21465,7 @@
         <v>34</v>
       </c>
       <c r="E240" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K240" t="s">
         <v>25</v>
@@ -21681,7 +21681,7 @@
         <v>34</v>
       </c>
       <c r="E243" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F243" t="s">
         <v>25</v>
@@ -23685,7 +23685,7 @@
         <v>99</v>
       </c>
       <c r="E266" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F266" t="s">
         <v>26</v>
@@ -23966,7 +23966,7 @@
         <v>23</v>
       </c>
       <c r="E270" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F270" t="s">
         <v>25</v>
@@ -24055,7 +24055,7 @@
         <v>128</v>
       </c>
       <c r="E271" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F271" t="s">
         <v>26</v>
@@ -24188,7 +24188,7 @@
         <v>23</v>
       </c>
       <c r="E273" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F273" t="s">
         <v>25</v>
@@ -24321,7 +24321,7 @@
         <v>78</v>
       </c>
       <c r="E275" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F275" t="s">
         <v>40</v>
@@ -24855,7 +24855,7 @@
         <v>23</v>
       </c>
       <c r="E281" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F281" t="s">
         <v>25</v>
@@ -25581,7 +25581,7 @@
         <v>23</v>
       </c>
       <c r="E290" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F290" t="s">
         <v>26</v>
@@ -25756,7 +25756,7 @@
         <v>59</v>
       </c>
       <c r="E292" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F292" t="s">
         <v>26</v>
